--- a/SOAPAP/OutputTem/Cedula.xlsx
+++ b/SOAPAP/OutputTem/Cedula.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0117DB61-A322-480D-A68A-55B2314E265A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD25CA-DC44-4760-B81E-78713ECF891A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98D6CDA1-E1CE-4545-A345-C498557E7D72}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3A51AEC6-2D0A-405B-9024-1DA79A4BF34E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Predial Enero-Junio" sheetId="1" r:id="rId1"/>
+    <sheet name="Predial Julio-Diciembre" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
-  <si>
-    <t>CLAVE:</t>
-  </si>
-  <si>
-    <t>SUJETO DE REVISIÓN:</t>
-  </si>
-  <si>
-    <t>RECAUDACIÓN DE IMPUESTO PREDIAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>IMPUESTOS SOBRE EL PATRIMONIO</t>
   </si>
@@ -72,22 +67,22 @@
     <t>DIFERENCIA ENTRE INGRESOS NETOS VS. CFDI</t>
   </si>
   <si>
-    <t>JULIO</t>
+    <t>ENERO</t>
   </si>
   <si>
-    <t>AGOSTO</t>
+    <t>FEBRERO</t>
   </si>
   <si>
-    <t>SEPTIEMBRE</t>
+    <t>MARZO</t>
   </si>
   <si>
-    <t>OCTUBRE</t>
+    <t>ABRIL</t>
   </si>
   <si>
-    <t>NOVIEMBRE</t>
+    <t>MAYO</t>
   </si>
   <si>
-    <t>DICIEMBRE</t>
+    <t>JUNIO</t>
   </si>
   <si>
     <t>TOTAL INGRESOS</t>
@@ -106,12 +101,6 @@
   </si>
   <si>
     <t>SUBCUENTA</t>
-  </si>
-  <si>
-    <t>EJERCICIO 2016</t>
-  </si>
-  <si>
-    <t>EJERCICIOS ANTERIORES A 2016</t>
   </si>
   <si>
     <t>A</t>
@@ -184,7 +173,46 @@
     <t>SUMAS</t>
   </si>
   <si>
+    <t>CLAVE:</t>
+  </si>
+  <si>
+    <t>SUJETO DE REVISIÓN:</t>
+  </si>
+  <si>
+    <t>RECAUDACIÓN DE IMPUESTO PREDIAL</t>
+  </si>
+  <si>
     <t>BAJO PROTESTA DE DECIR VERDAD DECLARAMOS QUE LOS DATOS ANOTADOS EN EL FORMATO, SON CORRECTOS Y SON RESPONSABILIDAD DEL EMISOR.</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
+  </si>
+  <si>
+    <t>DICIEMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJERCICIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EJERCICIOS ANTERIORES A </t>
+  </si>
+  <si>
+    <t>EJERCICIOS ANTERIORES A 2</t>
+  </si>
+  <si>
+    <t>EJERCICIOS ANTERIORES A</t>
   </si>
 </sst>
 </file>
@@ -195,7 +223,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-80A]#,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +237,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Optima LT Std"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Optima LT Std"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Optima LT Std"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,13 +273,17 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Optima LT Std"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <name val="Optima LT Std"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Optima LT Std"/>
       <family val="2"/>
     </font>
@@ -245,31 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Optima LT Std"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
-      <name val="Optima LT Std"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Optima LT Std"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Optima LT Std"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Optima LT Std"/>
       <family val="2"/>
     </font>
@@ -278,16 +305,8 @@
       <name val="Optima LT Std"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Optima LT Std"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,186 +735,234 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{590981F4-C171-4014-BEDB-237DD6E65817}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{FAE22B0E-4D25-4B42-BB26-3E2CA9557586}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7FA3D0F9-0A03-4CE1-8975-3EEB9AAAF548}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{E5CE8BA6-F47B-48D5-81DD-0A96649F92B8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,82 +979,720 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358468</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>910167</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107158</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495302</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="11 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE650F66-23EB-414C-9A64-35A74C5157F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1ED1DA-88B9-4354-A98C-DEE192225BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="933451"/>
-          <a:ext cx="3339042" cy="631032"/>
+          <a:off x="358468" y="0"/>
+          <a:ext cx="5337484" cy="692150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4489</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182143</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>77219</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="1 Grupo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC5D9EA-7619-414A-A5A2-A3739DB210BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2528614" y="8763012"/>
+          <a:ext cx="27657279" cy="1982207"/>
+          <a:chOff x="326183" y="9514294"/>
+          <a:chExt cx="5510799" cy="1954038"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="AutoShape 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C28378A-B7ED-4331-A2D4-31A913626323}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="326183" y="9538355"/>
+            <a:ext cx="1201263" cy="1812739"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-        </a:ln>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>MARÍA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t> GUADALUPE DANIEL HERNÁNDEZ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>PRESIDENTE MUNICIPAL </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="AutoShape 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E4C667-5131-479F-BA7B-408616A751C8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3089259" y="9572711"/>
+            <a:ext cx="1227959" cy="1895621"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>OSCAR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t> ALFONSO RAMIREZ SAMIENTO</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>CONTRALOR MUNICIPAL </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="AutoShape 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F58B682-93C6-4C20-9BA6-97382511CB3F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1697185" y="9514294"/>
+            <a:ext cx="1201263" cy="1858116"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>JOSE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t> MARÍA PEREZ MEZA</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>TESORERO MUNICIPAL </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="AutoShape 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E8B69F-8EF0-4F2C-B6BF-FEB505678E23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4546736" y="9534861"/>
+            <a:ext cx="1290246" cy="1912153"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="700" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>CP. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="1">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX" sz="1000" b="1" i="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:rPr>
+              <a:t>DIRECTOR DE OBRAS PÚBLICAS</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824265B2-97F1-48C2-BA83-2D6D79EF3A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3914775" y="1914525"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100"/>
-            <a:t>LOGO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-MX" sz="1100" baseline="0"/>
-            <a:t>TIPO DEL SUJETO DE REVISIÓN</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-MX" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215081</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1259759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>173262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C04C45-B72B-413B-8F96-C9C88C0DFE0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="11365" t="9823" r="15331"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215081" y="735370"/>
+          <a:ext cx="1416153" cy="961892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -997,10 +1708,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="1 Grupo">
+        <xdr:cNvPr id="2" name="1 Grupo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEA5F46-D28E-426D-9181-552FD80E65F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB36DA6-1CCC-4EDF-B9FB-57661B3C2C8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,18 +1721,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="10401301"/>
-          <a:ext cx="25682575" cy="952500"/>
+          <a:off x="457200" y="8553451"/>
+          <a:ext cx="34693225" cy="1123950"/>
           <a:chOff x="326183" y="9510795"/>
           <a:chExt cx="6308850" cy="1061375"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="AutoShape 14">
+          <xdr:cNvPr id="3" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5895CFC3-48EB-4483-B802-33564DB50D5E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97269338-B2FB-4E41-9717-217890285D36}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1148,10 +1859,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="AutoShape 16">
+          <xdr:cNvPr id="4" name="AutoShape 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDBC96D-74F8-43D2-8D36-4417B2D0CD80}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A28A127-DF3C-481D-8905-75DA31729340}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1266,10 +1977,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="AutoShape 17">
+          <xdr:cNvPr id="5" name="AutoShape 17">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBA2B86-EB56-4109-9B17-842458DCB7BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98502FDF-6F1A-4644-B279-6EF6AB2C7278}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1413,10 +2124,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="AutoShape 19">
+          <xdr:cNvPr id="6" name="AutoShape 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4966285-BC8B-46A5-BF3D-A0898C5DA905}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828FF6D2-F7EC-450F-A539-A6F45E1B8F34}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1528,17 +2239,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="11 Imagen">
+        <xdr:cNvPr id="7" name="11 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4B88F3-9103-4EC5-B61E-327E9C2E323A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1048B506-2592-4AF6-B692-79B4AFBF5F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +2272,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="0"/>
+          <a:off x="457200" y="0"/>
           <a:ext cx="5299075" cy="755650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1594,7 +2305,63 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176011</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A847C93E-53D7-44DC-94F2-AEE1C1D5A26A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="11365" t="9823" r="15331"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="633211" y="771525"/>
+          <a:ext cx="1119389" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sujetos de Revisión"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1893,1115 +2660,1867 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA381CA-A48E-47C0-A8CC-C694E9D53344}">
-  <dimension ref="A10:AF46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826EC367-DCB2-401A-ABBC-6067148B37C6}">
+  <dimension ref="B1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="16.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.42578125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:29" ht="15.75">
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:29" ht="15.75">
-      <c r="B11" s="2" t="s">
+    <row r="1" spans="2:27">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+    </row>
+    <row r="2" spans="2:27">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="2:27" ht="15.75">
+      <c r="B10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="2:27" ht="15.75">
+      <c r="B11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="2:27" ht="15.75">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="2:27" ht="15.75">
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="28"/>
+    </row>
+    <row r="18" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:29" ht="15.75">
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:29" ht="15.75">
-      <c r="B13" s="2" t="s">
+      <c r="C18" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="16" spans="2:29" ht="15" thickBot="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="2:29" ht="20.25" thickBot="1">
-      <c r="B17" s="5" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="2:29" ht="17.25" thickBot="1">
-      <c r="B18" s="9" t="s">
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="V18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13" t="s">
+      <c r="W18" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="16" t="s">
+      <c r="X18" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="17" t="s">
+      <c r="Y18" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="W18" s="18" t="s">
+      <c r="Z18" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="X18" s="18" t="s">
+      <c r="AA18" s="30"/>
+    </row>
+    <row r="19" spans="2:27" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B19" s="55"/>
+      <c r="C19" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="Y18" s="18" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Z18" s="18" t="s">
+      <c r="F19" s="70"/>
+      <c r="G19" s="47" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:29" ht="75.75" thickBot="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="17" t="s">
+      <c r="H19" s="48"/>
+      <c r="I19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
+      <c r="J19" s="48"/>
+      <c r="K19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="17" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="17" t="s">
+      <c r="N19" s="48"/>
+      <c r="O19" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="17" t="s">
+      <c r="P19" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="17" t="s">
+      <c r="Q19" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="18" t="s">
+      <c r="R19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="U19" s="64"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20" spans="2:27" ht="26.25" hidden="1" thickBot="1">
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="S20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="77"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="23" t="s">
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="30"/>
+    </row>
+    <row r="21" spans="2:27" ht="15.75" thickBot="1">
+      <c r="B21" s="55"/>
+      <c r="C21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="30"/>
+    </row>
+    <row r="22" spans="2:27" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B22" s="56"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-    </row>
-    <row r="20" spans="2:29" ht="30.75" thickBot="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="22" t="s">
+      <c r="P22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="30" t="s">
+      <c r="Q22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-    </row>
-    <row r="21" spans="2:29" ht="15" thickBot="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="61" t="s">
+      <c r="R22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="S22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-    </row>
-    <row r="22" spans="2:29" ht="15.75" thickBot="1">
-      <c r="B22" s="39"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43" t="s">
+      <c r="T22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="U22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="V22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="W22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="44" t="s">
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T22" s="44" t="s">
+      <c r="Z22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="44" t="s">
+      <c r="AA22" s="30"/>
+    </row>
+    <row r="23" spans="2:27">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="45" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13">
+        <f>SUM(C23:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13">
+        <f>+O23-P23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="13">
+        <f>+R23-S23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <f>+Q23-T23</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="13">
+        <f>+T23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="13">
+        <f>+T23-Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="30"/>
+    </row>
+    <row r="24" spans="2:27" ht="25.5">
+      <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="44" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13">
+        <f t="shared" ref="O24:O33" si="0">SUM(C24:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="13">
+        <f t="shared" ref="Q24:Q33" si="1">+O24-P24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="13">
+        <f t="shared" ref="T24:T33" si="2">+R24-S24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <f t="shared" ref="U24:U33" si="3">+Q24-T24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="13">
+        <f t="shared" ref="W24:W33" si="4">+T24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="13">
+        <f t="shared" ref="Z24:Z33" si="5">+T24-Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="30"/>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="30"/>
+    </row>
+    <row r="26" spans="2:27">
+      <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Z22" s="44" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13">
+        <f>SUM(C26:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="14"/>
+      <c r="W26" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="30"/>
+    </row>
+    <row r="27" spans="2:27" ht="25.5">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="2:29" ht="15">
-      <c r="B23" s="46" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="30"/>
+    </row>
+    <row r="28" spans="2:27" ht="38.25">
+      <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="49">
-        <f>SUM(C23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="49">
-        <f>+O23-P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="49">
-        <f>+R23-S23</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="49">
-        <f>+Q23-T23</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="50"/>
-      <c r="W23" s="49">
-        <f>+T23-V23</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="49">
-        <f>+T23-Y23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" ht="30">
-      <c r="B24" s="46" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="30"/>
+    </row>
+    <row r="29" spans="2:27">
+      <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49">
-        <f t="shared" ref="O24:O33" si="0">SUM(C24:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="49">
-        <f t="shared" ref="Q24:Q33" si="1">+O24-P24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="49">
-        <f t="shared" ref="T24:T33" si="2">+R24-S24</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="49">
-        <f t="shared" ref="U24:U33" si="3">+Q24-T24</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="49">
-        <f t="shared" ref="W24:W33" si="4">+T24-V24</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="49">
-        <f t="shared" ref="Z24:Z33" si="5">+T24-Y24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" ht="15">
-      <c r="B25" s="46" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="30"/>
+    </row>
+    <row r="30" spans="2:27">
+      <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="49">
+      <c r="P30" s="14"/>
+      <c r="Q30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="49">
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U30" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25" s="50"/>
-      <c r="W25" s="49">
+      <c r="V30" s="14"/>
+      <c r="W30" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="49">
+      <c r="X30" s="15"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" ht="30">
-      <c r="B26" s="46" t="s">
+      <c r="AA30" s="30"/>
+    </row>
+    <row r="31" spans="2:27">
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="49">
+      <c r="P31" s="14"/>
+      <c r="Q31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="49">
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U31" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V26" s="50"/>
-      <c r="W26" s="49">
+      <c r="V31" s="14"/>
+      <c r="W31" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="49">
+      <c r="X31" s="15"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" ht="30">
-      <c r="B27" s="46" t="s">
+      <c r="AA31" s="30"/>
+    </row>
+    <row r="32" spans="2:27">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="49">
+      <c r="P32" s="14"/>
+      <c r="Q32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="49">
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U32" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V27" s="50"/>
-      <c r="W27" s="49">
+      <c r="V32" s="14"/>
+      <c r="W32" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="49">
+      <c r="X32" s="15"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:29" ht="90">
-      <c r="B28" s="46" t="s">
+      <c r="AA32" s="30"/>
+    </row>
+    <row r="33" spans="2:27">
+      <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="49">
+      <c r="P33" s="14"/>
+      <c r="Q33" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="49">
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="49">
+      <c r="U33" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="50"/>
-      <c r="W28" s="49">
+      <c r="V33" s="14"/>
+      <c r="W33" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="49">
+      <c r="X33" s="15"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:29" ht="15">
-      <c r="B29" s="46" t="s">
+      <c r="AA33" s="30"/>
+    </row>
+    <row r="34" spans="2:27">
+      <c r="B34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="50"/>
-      <c r="W29" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" ht="15">
-      <c r="B30" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="50"/>
-      <c r="W30" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" ht="30">
-      <c r="B31" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="50"/>
-      <c r="W31" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" ht="15">
-      <c r="B32" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="50"/>
-      <c r="W32" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="50"/>
-      <c r="Z32" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="15">
-      <c r="B33" s="46" t="s">
+      <c r="C34" s="21">
+        <f t="shared" ref="C34:W34" si="6">SUM(C23:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21">
+        <f>SUM(Y23:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="21">
+        <f>SUM(Z23:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="31"/>
+    </row>
+    <row r="35" spans="2:27">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+    </row>
+    <row r="36" spans="2:27">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+    </row>
+    <row r="37" spans="2:27">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+    </row>
+    <row r="38" spans="2:27">
+      <c r="B38" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="49">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="50"/>
-      <c r="Z33" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" s="52" customFormat="1" ht="15">
-      <c r="B34" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="54">
-        <f t="shared" ref="C34:W34" si="6">SUM(C23:C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="54"/>
-      <c r="Y34" s="54">
-        <f>SUM(Y23:Y33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="54">
-        <f>SUM(Z23:Z33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" s="56" customFormat="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="55"/>
-      <c r="AB37" s="55"/>
-    </row>
-    <row r="38" spans="1:32" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="B38" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="58"/>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="58"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-    </row>
-    <row r="39" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A39" s="60"/>
-    </row>
-    <row r="40" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A40" s="60"/>
-    </row>
-    <row r="41" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A41" s="60"/>
-    </row>
-    <row r="42" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A42" s="60"/>
-    </row>
-    <row r="43" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A43" s="60"/>
-    </row>
-    <row r="44" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A44" s="60"/>
-    </row>
-    <row r="45" spans="1:32" s="57" customFormat="1" ht="12.75">
-      <c r="A45" s="60"/>
-    </row>
-    <row r="46" spans="1:32" s="56" customFormat="1">
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="35"/>
+    </row>
+    <row r="39" spans="2:27">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+    </row>
+    <row r="41" spans="2:27">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+    </row>
+    <row r="42" spans="2:27">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+    </row>
+    <row r="43" spans="2:27">
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+    </row>
+    <row r="44" spans="2:27">
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+    </row>
+    <row r="45" spans="2:27">
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+    </row>
+    <row r="46" spans="2:27">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+    </row>
+    <row r="47" spans="2:27">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+    </row>
+    <row r="48" spans="2:27">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+    </row>
+    <row r="49" spans="2:27">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+    </row>
+    <row r="50" spans="2:27">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+    </row>
+    <row r="51" spans="2:27">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:J20"/>
     <mergeCell ref="B38:Z38"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J21:J22"/>
@@ -3017,12 +4536,6 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="I19:J20"/>
     <mergeCell ref="K19:L20"/>
     <mergeCell ref="M19:N20"/>
     <mergeCell ref="B17:Z17"/>
@@ -3035,9 +4548,1895 @@
     <mergeCell ref="X18:X21"/>
     <mergeCell ref="Y18:Y21"/>
     <mergeCell ref="Z18:Z21"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y33 R23:S33 V23:V33 O23:P33" xr:uid="{363230B0-BBE6-4D51-AE25-ECF29C5ACA73}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y33 R23:S33 V23:V33 O23:P33" xr:uid="{0BAF0995-4D3E-4C84-B49D-7371F75D40C0}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2F47AB0-0951-4BF2-9F5B-9DDDB89EDFEE}">
+          <x14:formula1>
+            <xm:f>'C:\Users\Montserrat\Desktop\[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12 D10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2DDC7-F9E8-4154-A34B-E75AA9CC9EB1}">
+  <dimension ref="A1:AA48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75">
+      <c r="A10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75">
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="40"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="61"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA18" s="22"/>
+    </row>
+    <row r="19" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="82"/>
+      <c r="G19" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="48"/>
+      <c r="K19" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="48"/>
+      <c r="O19" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="64"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="22"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" hidden="1" thickBot="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="77"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="67"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="67"/>
+      <c r="Z20" s="67"/>
+      <c r="AA20" s="22"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="22"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA22" s="22"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="22"/>
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13">
+        <f>SUM(C23:N23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="13">
+        <f>+O23-P23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="13">
+        <f>+R23-S23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <f>+Q23-T23</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="13">
+        <f>+T23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="13">
+        <f>+T23-Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="22"/>
+    </row>
+    <row r="24" spans="1:27" ht="25.5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13">
+        <f t="shared" ref="O24:O33" si="0">SUM(C24:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="13">
+        <f t="shared" ref="Q24:Q33" si="1">+O24-P24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="13">
+        <f t="shared" ref="T24:T33" si="2">+R24-S24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <f t="shared" ref="U24:U33" si="3">+Q24-T24</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="13">
+        <f t="shared" ref="W24:W33" si="4">+T24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="13">
+        <f t="shared" ref="Z24:Z33" si="5">+T24-Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="22"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="22"/>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="22"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="22"/>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13">
+        <f>SUM(C26:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="14"/>
+      <c r="W26" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="22"/>
+    </row>
+    <row r="27" spans="1:27" ht="25.5">
+      <c r="A27" s="22"/>
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="22"/>
+    </row>
+    <row r="28" spans="1:27" ht="51">
+      <c r="A28" s="22"/>
+      <c r="B28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="22"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="22"/>
+      <c r="B29" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="22"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="22"/>
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="22"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="22"/>
+      <c r="B31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="14"/>
+      <c r="W31" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="22"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="22"/>
+      <c r="B32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="14"/>
+      <c r="W32" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="22"/>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="22"/>
+      <c r="B33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="14"/>
+      <c r="W33" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="22"/>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="45"/>
+      <c r="B34" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" ref="C34:W34" si="6">SUM(C23:C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21">
+        <f>SUM(Y23:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="21">
+        <f>SUM(Z23:Z33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="45"/>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="36"/>
+      <c r="B38" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="35"/>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="46"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="46"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="46"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="46"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="46"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="36"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="36"/>
+      <c r="Y43" s="36"/>
+      <c r="Z43" s="36"/>
+      <c r="AA43" s="36"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="46"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="46"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="36"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="36"/>
+      <c r="Y45" s="36"/>
+      <c r="Z45" s="36"/>
+      <c r="AA45" s="36"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="B38:Z38"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="Q19:Q21"/>
+    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
+    <mergeCell ref="B17:Z17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="U18:U21"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W21"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="Y18:Y21"/>
+    <mergeCell ref="Z18:Z21"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y33 R23:S33 V23:V33 O23:P33" xr:uid="{4508205E-A5E0-471F-AE4F-0360A701496B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3046,24 +6445,12 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96F92B7E-E292-4CC7-BC58-F105891CE459}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B6EEEE9-B871-4572-9BB9-333D8A6ED9F2}">
           <x14:formula1>
-            <xm:f>'[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
+            <xm:f>'C:\Users\Montserrat\Desktop\[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0623A7FF-E431-4D21-9B16-427AC34C1F50}">
-          <x14:formula1>
-            <xm:f>'[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5635CFA1-E033-4905-92B0-512C88E739FA}">
-          <x14:formula1>
-            <xm:f>'[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B12</xm:sqref>
+          <xm:sqref>B12 D10:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SOAPAP/OutputTem/Cedula.xlsx
+++ b/SOAPAP/OutputTem/Cedula.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD25CA-DC44-4760-B81E-78713ECF891A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C2C06-FC2C-4B5B-860A-19C11A8FCCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3A51AEC6-2D0A-405B-9024-1DA79A4BF34E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>IMPUESTOS SOBRE EL PATRIMONIO</t>
   </si>
@@ -209,10 +209,7 @@
     <t xml:space="preserve">EJERCICIOS ANTERIORES A </t>
   </si>
   <si>
-    <t>EJERCICIOS ANTERIORES A 2</t>
-  </si>
-  <si>
-    <t>EJERCICIOS ANTERIORES A</t>
+    <t xml:space="preserve">EJERCICIOS ADELANTADOS A </t>
   </si>
 </sst>
 </file>
@@ -338,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -692,17 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -724,6 +710,35 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -735,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -849,6 +864,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,6 +882,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,55 +963,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,7 +1024,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>495302</xdr:colOff>
+      <xdr:colOff>390527</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -1061,7 +1097,7 @@
       <xdr:rowOff>12</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>182143</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>77219</xdr:rowOff>
@@ -1082,7 +1118,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="2528614" y="8763012"/>
-          <a:ext cx="27657279" cy="1982207"/>
+          <a:ext cx="35620179" cy="1982207"/>
           <a:chOff x="326183" y="9514294"/>
           <a:chExt cx="5510799" cy="1954038"/>
         </a:xfrm>
@@ -1599,13 +1635,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1701,7 +1737,7 @@
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -1722,7 +1758,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="457200" y="8553451"/>
-          <a:ext cx="34693225" cy="1123950"/>
+          <a:ext cx="42408475" cy="1123950"/>
           <a:chOff x="326183" y="9510795"/>
           <a:chExt cx="6308850" cy="1061375"/>
         </a:xfrm>
@@ -2240,7 +2276,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
@@ -2661,48 +2697,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826EC367-DCB2-401A-ABBC-6067148B37C6}">
-  <dimension ref="B1:AA51"/>
+  <dimension ref="B1:AG51"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" customWidth="1"/>
+    <col min="31" max="31" width="21.85546875" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
+    <row r="1" spans="2:33" ht="15" customHeight="1">
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -2722,15 +2759,21 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
-    </row>
-    <row r="2" spans="2:27">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+    </row>
+    <row r="2" spans="2:33">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -2750,15 +2793,21 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+    </row>
+    <row r="3" spans="2:33">
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2778,15 +2827,21 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-    </row>
-    <row r="4" spans="2:27">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+    </row>
+    <row r="4" spans="2:33">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -2806,15 +2861,21 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
-    </row>
-    <row r="5" spans="2:27">
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+    </row>
+    <row r="5" spans="2:33">
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -2834,15 +2895,21 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
-    </row>
-    <row r="6" spans="2:27">
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+    </row>
+    <row r="6" spans="2:33">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -2862,15 +2929,21 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
-    </row>
-    <row r="7" spans="2:27">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+    </row>
+    <row r="7" spans="2:33">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -2890,15 +2963,21 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
-    </row>
-    <row r="8" spans="2:27">
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -2918,15 +2997,21 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
-    </row>
-    <row r="9" spans="2:27">
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+    </row>
+    <row r="9" spans="2:33">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -2946,29 +3031,35 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
-    </row>
-    <row r="10" spans="2:27" ht="15.75">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+    </row>
+    <row r="10" spans="2:33" ht="15.75">
       <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -2976,28 +3067,34 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-    </row>
-    <row r="11" spans="2:27" ht="15.75">
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+    </row>
+    <row r="11" spans="2:33" ht="15.75">
       <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
@@ -3005,27 +3102,33 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="2:27" ht="15.75">
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+    </row>
+    <row r="12" spans="2:33" ht="15.75">
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -3033,29 +3136,35 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
-    </row>
-    <row r="13" spans="2:27" ht="15.75">
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75">
       <c r="B13" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
@@ -3063,15 +3172,21 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
-    </row>
-    <row r="14" spans="2:27">
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+    </row>
+    <row r="14" spans="2:33">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -3091,15 +3206,21 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
-    </row>
-    <row r="15" spans="2:27">
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+    </row>
+    <row r="15" spans="2:33">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -3119,15 +3240,21 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
-    </row>
-    <row r="16" spans="2:27" ht="15.75" thickBot="1">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+    </row>
+    <row r="16" spans="2:33" ht="15.75" thickBot="1">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -3147,326 +3274,386 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="2:27" ht="15.75" thickBot="1">
-      <c r="B17" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="28"/>
-    </row>
-    <row r="18" spans="2:27" ht="15.75" thickBot="1">
-      <c r="B18" s="54" t="s">
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+    </row>
+    <row r="17" spans="2:33" ht="15.75" thickBot="1">
+      <c r="B17" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="83"/>
+      <c r="AC17" s="83"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="28"/>
+    </row>
+    <row r="18" spans="2:33" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60" t="s">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="61"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63" t="s">
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="47" t="s">
+      <c r="AB18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="66" t="s">
+      <c r="AC18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="X18" s="66" t="s">
+      <c r="AD18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="66" t="s">
+      <c r="AE18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="66" t="s">
+      <c r="AF18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AA18" s="30"/>
-    </row>
-    <row r="19" spans="2:27" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="47" t="s">
+      <c r="AG18" s="30"/>
+    </row>
+    <row r="19" spans="2:33" ht="86.25" customHeight="1" thickBot="1">
+      <c r="B19" s="69"/>
+      <c r="C19" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47" t="s">
+      <c r="J19" s="85"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="47" t="s">
+      <c r="M19" s="85"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="47" t="s">
+      <c r="P19" s="85"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="66" t="s">
+      <c r="S19" s="85"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="V19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="66" t="s">
+      <c r="W19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="76" t="s">
+      <c r="Z19" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="64"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="30"/>
-    </row>
-    <row r="20" spans="2:27" ht="26.25" hidden="1" thickBot="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="1" t="s">
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="30"/>
+    </row>
+    <row r="20" spans="2:33" ht="26.25" hidden="1" customHeight="1" thickBot="1">
+      <c r="B20" s="69"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="77"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="2" t="s">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="30"/>
-    </row>
-    <row r="21" spans="2:27" ht="15.75" thickBot="1">
-      <c r="B21" s="55"/>
-      <c r="C21" s="66" t="s">
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="30"/>
+    </row>
+    <row r="21" spans="2:33" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="69"/>
+      <c r="C21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="79" t="s">
+      <c r="G21" s="87" t="s">
         <v>56</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="J21" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="K21" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="M21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="N21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="30"/>
-    </row>
-    <row r="22" spans="2:27" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="6" t="s">
+      <c r="P21" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="T21" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="30"/>
+    </row>
+    <row r="22" spans="2:33" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B22" s="70"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="V22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="W22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="X22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="Y22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="Z22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="AA22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="8" t="s">
+      <c r="AB22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="AC22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7" t="s">
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="AF22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="30"/>
-    </row>
-    <row r="23" spans="2:27">
+      <c r="AG22" s="30"/>
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="13">
-        <f>SUM(C23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="13">
-        <f>+O23-P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13">
-        <f>+R23-S23</f>
-        <v>0</v>
-      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="13">
-        <f>+Q23-T23</f>
+        <f>SUM(C23:T23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="13">
-        <f>+T23-V23</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16"/>
+        <f>+U23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="13">
-        <f>+T23-Y23</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="30"/>
-    </row>
-    <row r="24" spans="2:27" ht="25.5">
+        <f>+X23-Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <f>+W23-Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="13">
+        <f>+Z23-AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="13">
+        <f>+Z23-AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="30"/>
+    </row>
+    <row r="24" spans="2:33" ht="25.5">
       <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -3476,45 +3663,51 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="13">
-        <f t="shared" ref="O24:O33" si="0">SUM(C24:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="13">
-        <f t="shared" ref="Q24:Q33" si="1">+O24-P24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13">
-        <f t="shared" ref="T24:T33" si="2">+R24-S24</f>
-        <v>0</v>
-      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="13">
-        <f t="shared" ref="U24:U33" si="3">+Q24-T24</f>
+        <f>SUM(C24:T24)</f>
         <v>0</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="13">
-        <f t="shared" ref="W24:W33" si="4">+T24-V24</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="16"/>
+        <f>+U24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
       <c r="Z24" s="13">
-        <f t="shared" ref="Z24:Z33" si="5">+T24-Y24</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="30"/>
-    </row>
-    <row r="25" spans="2:27">
+        <f>+X24-Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" ref="AA24:AA33" si="0">+W24-Z24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="13">
+        <f t="shared" ref="AC24:AC33" si="1">+Z24-AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="13">
+        <f t="shared" ref="AF24:AF33" si="2">+Z24-AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="30"/>
+    </row>
+    <row r="25" spans="2:33">
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -3524,45 +3717,51 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
       <c r="U25" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C25:T25)</f>
         <v>0</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="15"/>
+        <f t="shared" ref="W24:W33" si="3">+U25-V25</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="30"/>
-    </row>
-    <row r="26" spans="2:27">
+        <f t="shared" ref="Z24:Z33" si="4">+X25-Y25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="30"/>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -3572,93 +3771,105 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="13">
-        <f>SUM(C26:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
       <c r="U26" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C26:T26)</f>
         <v>0</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="30"/>
-    </row>
-    <row r="27" spans="2:27" ht="25.5">
+      <c r="AA26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="30"/>
+    </row>
+    <row r="27" spans="2:33" ht="25.5">
       <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
       <c r="U27" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C27:T27)</f>
         <v>0</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="30"/>
-    </row>
-    <row r="28" spans="2:27" ht="38.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="30"/>
+    </row>
+    <row r="28" spans="2:33" ht="38.25">
       <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -3668,45 +3879,51 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
       <c r="U28" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C28:T28)</f>
         <v>0</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="30"/>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AA28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="30"/>
+    </row>
+    <row r="29" spans="2:33">
       <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -3716,45 +3933,51 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
       <c r="U29" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C29:T29)</f>
         <v>0</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="30"/>
-    </row>
-    <row r="30" spans="2:27">
+      <c r="AA29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="30"/>
+    </row>
+    <row r="30" spans="2:33">
       <c r="B30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -3764,39 +3987,45 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
       <c r="U30" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C30:T30)</f>
         <v>0</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="30"/>
-    </row>
-    <row r="31" spans="2:27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="30"/>
+    </row>
+    <row r="31" spans="2:33">
       <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
@@ -3812,39 +4041,45 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
       <c r="U31" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C31:T31)</f>
         <v>0</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="30"/>
-    </row>
-    <row r="32" spans="2:27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="30"/>
+    </row>
+    <row r="32" spans="2:33">
       <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
@@ -3860,39 +4095,45 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
       <c r="U32" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C32:T32)</f>
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="30"/>
-    </row>
-    <row r="33" spans="2:27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="30"/>
+    </row>
+    <row r="33" spans="2:33">
       <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
@@ -3908,145 +4149,175 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
       <c r="U33" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C33:T33)</f>
         <v>0</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="15"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="30"/>
-    </row>
-    <row r="34" spans="2:27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="30"/>
+    </row>
+    <row r="34" spans="2:33">
       <c r="B34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" ref="C34:W34" si="6">SUM(C23:C33)</f>
+        <f>SUM(C23:C33)</f>
         <v>0</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(D23:D33)</f>
         <v>0</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E34:AC34" si="5">SUM(E23:E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(G23:G33)</f>
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(J23:J33)</f>
         <v>0</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(M23:M33)</f>
         <v>0</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(P23:P33)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(S23:S33)</f>
         <v>0</v>
       </c>
       <c r="T34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="21"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y34" s="21">
-        <f>SUM(Y23:Y33)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z34" s="21">
-        <f>SUM(Z23:Z33)</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="31"/>
-    </row>
-    <row r="35" spans="2:27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21">
+        <f>SUM(AE23:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="21">
+        <f>SUM(AF23:AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="31"/>
+    </row>
+    <row r="35" spans="2:33">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="32"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
@@ -4066,15 +4337,21 @@
       <c r="Y35" s="30"/>
       <c r="Z35" s="30"/>
       <c r="AA35" s="30"/>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+    </row>
+    <row r="36" spans="2:33">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
@@ -4094,15 +4371,21 @@
       <c r="Y36" s="30"/>
       <c r="Z36" s="30"/>
       <c r="AA36" s="30"/>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+    </row>
+    <row r="37" spans="2:33">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
@@ -4122,45 +4405,57 @@
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
-    </row>
-    <row r="38" spans="2:27">
-      <c r="B38" s="71" t="s">
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+    </row>
+    <row r="38" spans="2:33" ht="15" customHeight="1">
+      <c r="B38" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="35"/>
-    </row>
-    <row r="39" spans="2:27">
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="35"/>
+    </row>
+    <row r="39" spans="2:33">
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -4180,15 +4475,21 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
       <c r="AA39" s="36"/>
-    </row>
-    <row r="40" spans="2:27">
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+    </row>
+    <row r="40" spans="2:33">
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -4208,15 +4509,21 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
-    </row>
-    <row r="41" spans="2:27">
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+    </row>
+    <row r="41" spans="2:33">
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="37"/>
+      <c r="E41" s="36"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -4236,15 +4543,21 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
       <c r="AA41" s="36"/>
-    </row>
-    <row r="42" spans="2:27">
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+    </row>
+    <row r="42" spans="2:33">
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
@@ -4264,15 +4577,21 @@
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
-    </row>
-    <row r="43" spans="2:27">
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+    </row>
+    <row r="43" spans="2:33">
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="E43" s="36"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
@@ -4292,15 +4611,21 @@
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
-    </row>
-    <row r="44" spans="2:27">
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+    </row>
+    <row r="44" spans="2:33">
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
@@ -4320,15 +4645,21 @@
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
-    </row>
-    <row r="45" spans="2:27">
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+    </row>
+    <row r="45" spans="2:33">
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
       <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="37"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
       <c r="K45" s="36"/>
@@ -4348,15 +4679,21 @@
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
-    </row>
-    <row r="46" spans="2:27">
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+    </row>
+    <row r="46" spans="2:33">
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="39"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
@@ -4369,22 +4706,28 @@
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
       <c r="AA46" s="33"/>
-    </row>
-    <row r="47" spans="2:27">
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="33"/>
+      <c r="AG46" s="33"/>
+    </row>
+    <row r="47" spans="2:33">
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
+      <c r="E47" s="22"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="22"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -4404,15 +4747,21 @@
       <c r="Y47" s="22"/>
       <c r="Z47" s="22"/>
       <c r="AA47" s="22"/>
-    </row>
-    <row r="48" spans="2:27">
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+    </row>
+    <row r="48" spans="2:33">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="22"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -4432,15 +4781,21 @@
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
-    </row>
-    <row r="49" spans="2:27">
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+    </row>
+    <row r="49" spans="2:33">
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -4460,15 +4815,21 @@
       <c r="Y49" s="22"/>
       <c r="Z49" s="22"/>
       <c r="AA49" s="22"/>
-    </row>
-    <row r="50" spans="2:27">
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+    </row>
+    <row r="50" spans="2:33">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
@@ -4488,15 +4849,21 @@
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
-    </row>
-    <row r="51" spans="2:27">
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+    </row>
+    <row r="51" spans="2:33">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="22"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -4516,50 +4883,63 @@
       <c r="Y51" s="22"/>
       <c r="Z51" s="22"/>
       <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="B38:AF38"/>
+    <mergeCell ref="B17:AF17"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="B38:Z38"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AA21"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AD18:AD21"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AF18:AF21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:H20"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L19:N20"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Z19:Z21"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W21"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="Y18:Y21"/>
-    <mergeCell ref="Z18:Z21"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y33 R23:S33 V23:V33 O23:P33" xr:uid="{0BAF0995-4D3E-4C84-B49D-7371F75D40C0}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE23:AE33 X23:Y33 AB23:AB33 U23:V33" xr:uid="{0BAF0995-4D3E-4C84-B49D-7371F75D40C0}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -4567,7 +4947,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Montserrat\Desktop\[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 D10</xm:sqref>
+          <xm:sqref>B12 E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4577,43 +4957,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2DDC7-F9E8-4154-A34B-E75AA9CC9EB1}">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="3" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="19" width="19.7109375" customWidth="1"/>
     <col min="20" max="20" width="20.5703125" customWidth="1"/>
-    <col min="21" max="21" width="21.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="21.85546875" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.28515625" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" customWidth="1"/>
+    <col min="31" max="31" width="17.7109375" customWidth="1"/>
+    <col min="32" max="32" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:33">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -4641,8 +5021,14 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -4670,8 +5056,14 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -4699,8 +5091,14 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
       <c r="AA3" s="22"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -4728,8 +5126,14 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="22"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4757,8 +5161,14 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="22"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -4786,8 +5196,14 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -4815,8 +5231,14 @@
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -4844,8 +5266,14 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -4873,17 +5301,23 @@
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+    </row>
+    <row r="10" spans="1:33" ht="15.75">
       <c r="A10" s="22"/>
       <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
@@ -4891,12 +5325,12 @@
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -4904,17 +5338,23 @@
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75">
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+    </row>
+    <row r="11" spans="1:33" ht="15.75">
       <c r="A11" s="22"/>
       <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
@@ -4922,12 +5362,12 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
@@ -4935,15 +5375,21 @@
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75">
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+    </row>
+    <row r="12" spans="1:33" ht="15.75">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
@@ -4951,12 +5397,12 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
       <c r="N12" s="24"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -4964,17 +5410,23 @@
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75">
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+    </row>
+    <row r="13" spans="1:33" ht="15.75">
       <c r="A13" s="22"/>
       <c r="B13" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -4982,12 +5434,12 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
       <c r="N13" s="24"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
@@ -4995,8 +5447,14 @@
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
       <c r="AA13" s="22"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -5024,8 +5482,14 @@
       <c r="Y14" s="22"/>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -5053,8 +5517,14 @@
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+    </row>
+    <row r="16" spans="1:33" ht="15.75" thickBot="1">
       <c r="A16" s="22"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -5082,278 +5552,332 @@
       <c r="Y16" s="28"/>
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+    </row>
+    <row r="17" spans="1:33" ht="15.75" thickBot="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="40"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1">
+      <c r="B17" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="66"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="67"/>
+      <c r="AG17" s="40"/>
+    </row>
+    <row r="18" spans="1:33" ht="15.75" thickBot="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60" t="s">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="61"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="63" t="s">
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="47" t="s">
+      <c r="AB18" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="W18" s="66" t="s">
+      <c r="AC18" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="X18" s="66" t="s">
+      <c r="AD18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="66" t="s">
+      <c r="AE18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="66" t="s">
+      <c r="AF18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AA18" s="22"/>
-    </row>
-    <row r="19" spans="1:27" ht="51.75" thickBot="1">
+      <c r="AG18" s="22"/>
+    </row>
+    <row r="19" spans="1:33" ht="51.75" thickBot="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="82" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47" t="s">
+      <c r="J19" s="85"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="47" t="s">
+      <c r="M19" s="85"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="47" t="s">
+      <c r="P19" s="85"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="48"/>
-      <c r="O19" s="66" t="s">
+      <c r="S19" s="85"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="V19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="66" t="s">
+      <c r="W19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="76" t="s">
+      <c r="Z19" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="64"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="22"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" hidden="1" thickBot="1">
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="22"/>
+    </row>
+    <row r="20" spans="1:33" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="1" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="77"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="2" t="s">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="67"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="67"/>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="22"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1">
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="22"/>
+    </row>
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="66" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="G21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="H21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="J21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="K21" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="M21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="N21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="72" t="s">
+      <c r="P21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="Q21" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="R21" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="74" t="s">
+      <c r="S21" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="22"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1">
+      <c r="T21" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="22"/>
+    </row>
+    <row r="22" spans="1:33" ht="15.75" thickBot="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="6" t="s">
+      <c r="B22" s="70"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="V22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="W22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="X22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="Y22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="Z22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="AA22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V22" s="8" t="s">
+      <c r="AB22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W22" s="7" t="s">
+      <c r="AC22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7" t="s">
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z22" s="7" t="s">
+      <c r="AF22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA22" s="22"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AG22" s="22"/>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="22"/>
       <c r="B23" s="9" t="s">
         <v>33</v>
@@ -5363,46 +5887,52 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="13">
-        <f>SUM(C23:N23)</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="13">
-        <f>+O23-P23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13">
-        <f>+R23-S23</f>
-        <v>0</v>
-      </c>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
       <c r="U23" s="13">
-        <f>+Q23-T23</f>
+        <f>SUM(C23:T23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="13">
-        <f>+T23-V23</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="15"/>
+        <f>+U23-V23</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="13">
-        <f>+T23-Y23</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="22"/>
-    </row>
-    <row r="24" spans="1:27" ht="25.5">
+        <f>+X23-Y23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <f>+W23-Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="13">
+        <f>+Z23-AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="13">
+        <f>+Z23-AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="22"/>
+    </row>
+    <row r="24" spans="1:33" ht="25.5">
       <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
         <v>34</v>
@@ -5419,39 +5949,45 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="13">
-        <f t="shared" ref="O24:O33" si="0">SUM(C24:N24)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="13">
-        <f t="shared" ref="Q24:Q33" si="1">+O24-P24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13">
-        <f t="shared" ref="T24:T33" si="2">+R24-S24</f>
-        <v>0</v>
-      </c>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
       <c r="U24" s="13">
-        <f t="shared" ref="U24:U33" si="3">+Q24-T24</f>
+        <f t="shared" ref="U24:U33" si="0">SUM(C24:T24)</f>
         <v>0</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="13">
-        <f t="shared" ref="W24:W33" si="4">+T24-V24</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="15"/>
+        <f t="shared" ref="W24:W33" si="1">+U24-V24</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="13">
-        <f t="shared" ref="Z24:Z33" si="5">+T24-Y24</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="22"/>
-    </row>
-    <row r="25" spans="1:27">
+        <f t="shared" ref="Z24:Z33" si="2">+X24-Y24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" ref="AA24:AA33" si="3">+W24-Z24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="13">
+        <f t="shared" ref="AC24:AC33" si="4">+Z24-AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="13">
+        <f t="shared" ref="AF24:AF33" si="5">+Z24-AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="22"/>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="22"/>
       <c r="B25" s="9" t="s">
         <v>35</v>
@@ -5468,39 +6004,45 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="13">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="22"/>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AG25" s="22"/>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="22"/>
       <c r="B26" s="9" t="s">
         <v>36</v>
@@ -5517,44 +6059,49 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
-      <c r="O26" s="13">
-        <f>SUM(C26:N26)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
       <c r="U26" s="13">
-        <f t="shared" si="3"/>
+        <f>SUM(C26:T26)</f>
         <v>0</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="22"/>
-    </row>
-    <row r="27" spans="1:27" ht="25.5">
+      <c r="AG26" s="22"/>
+    </row>
+    <row r="27" spans="1:33" ht="25.5">
       <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -5565,137 +6112,155 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
-      <c r="O27" s="13">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="22"/>
-    </row>
-    <row r="28" spans="1:27" ht="51">
+      <c r="AG27" s="22"/>
+    </row>
+    <row r="28" spans="1:33" ht="51">
       <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
-      <c r="O28" s="13">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="22"/>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AG28" s="22"/>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="22"/>
       <c r="B29" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="44"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
-      <c r="O29" s="13">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="22"/>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AG29" s="22"/>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="22"/>
       <c r="B30" s="9" t="s">
         <v>40</v>
@@ -5712,39 +6277,45 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
-      <c r="O30" s="13">
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="22"/>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AG30" s="22"/>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="22"/>
       <c r="B31" s="9" t="s">
         <v>41</v>
@@ -5761,39 +6332,45 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
-      <c r="O31" s="13">
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="22"/>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AG31" s="22"/>
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="22"/>
       <c r="B32" s="9" t="s">
         <v>42</v>
@@ -5810,39 +6387,45 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
-      <c r="O32" s="13">
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="22"/>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AG32" s="22"/>
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -5859,49 +6442,55 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="13">
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="15"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="22"/>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AG33" s="22"/>
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="45"/>
       <c r="B34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" ref="C34:W34" si="6">SUM(C23:C33)</f>
+        <f t="shared" ref="C34:AC34" si="6">SUM(C23:C33)</f>
         <v>0</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(D23:D33)</f>
         <v>0</v>
       </c>
       <c r="E34" s="21">
@@ -5913,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(G23:G33)</f>
         <v>0</v>
       </c>
       <c r="H34" s="21">
@@ -5925,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(J23:J33)</f>
         <v>0</v>
       </c>
       <c r="K34" s="21">
@@ -5937,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(M23:M33)</f>
         <v>0</v>
       </c>
       <c r="N34" s="21">
@@ -5949,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(P23:P33)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="21">
@@ -5961,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="21">
-        <f t="shared" si="6"/>
+        <f>SUM(S23:S33)</f>
         <v>0</v>
       </c>
       <c r="T34" s="21">
@@ -5980,18 +6569,42 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X34" s="21"/>
+      <c r="X34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="Y34" s="21">
-        <f>SUM(Y23:Y33)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z34" s="21">
-        <f>SUM(Z23:Z33)</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="45"/>
-    </row>
-    <row r="35" spans="1:27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="21">
+        <f>SUM(AE23:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="21">
+        <f>SUM(AF23:AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="45"/>
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -6019,8 +6632,14 @@
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
       <c r="AA35" s="22"/>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -6048,8 +6667,14 @@
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -6077,39 +6702,51 @@
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="36"/>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="35"/>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="35"/>
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="46"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -6137,8 +6774,14 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
       <c r="AA39" s="36"/>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="46"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -6166,8 +6809,14 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="46"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -6195,8 +6844,14 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
       <c r="AA41" s="36"/>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" s="46"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -6224,8 +6879,14 @@
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="46"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -6253,8 +6914,14 @@
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" s="36"/>
+      <c r="AC43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="46"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -6282,8 +6949,14 @@
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="46"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -6311,8 +6984,14 @@
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" s="36"/>
+      <c r="AC45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -6333,15 +7012,21 @@
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
       <c r="T46" s="38"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
       <c r="AA46" s="33"/>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="33"/>
+      <c r="AD46" s="33"/>
+      <c r="AE46" s="33"/>
+      <c r="AF46" s="33"/>
+      <c r="AG46" s="33"/>
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -6369,8 +7054,14 @@
       <c r="Y47" s="22"/>
       <c r="Z47" s="22"/>
       <c r="AA47" s="22"/>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -6398,45 +7089,57 @@
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="B38:Z38"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
+    <mergeCell ref="B17:AF17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AA21"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC21"/>
+    <mergeCell ref="AD18:AD21"/>
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AF18:AF21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:H20"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="B38:AF38"/>
     <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="Q19:Q21"/>
-    <mergeCell ref="T19:T21"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="V19:V21"/>
+    <mergeCell ref="W19:W21"/>
+    <mergeCell ref="Z19:Z21"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="M19:N20"/>
-    <mergeCell ref="B17:Z17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="U18:U21"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W21"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="Y18:Y21"/>
-    <mergeCell ref="Z18:Z21"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="G19:H20"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y23:Y33 R23:S33 V23:V33 O23:P33" xr:uid="{4508205E-A5E0-471F-AE4F-0360A701496B}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE23:AE33 X23:Y33 AB23:AB33 U23:V33" xr:uid="{4508205E-A5E0-471F-AE4F-0360A701496B}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -6450,7 +7153,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\Montserrat\Desktop\[cedula de informacion junio 2019.xlsx]Sujetos de Revisión'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 D10:D11</xm:sqref>
+          <xm:sqref>B12 E10:E11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/SOAPAP/OutputTem/Cedula.xlsx
+++ b/SOAPAP/OutputTem/Cedula.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GFD\Documents\SISCOM\CAJA\SOAPAP\OutputTem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621C2C06-FC2C-4B5B-860A-19C11A8FCCD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84585217-7173-4B0E-84D0-BF1E22E53C1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3A51AEC6-2D0A-405B-9024-1DA79A4BF34E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3A51AEC6-2D0A-405B-9024-1DA79A4BF34E}"/>
   </bookViews>
   <sheets>
     <sheet name="Predial Enero-Junio" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -864,133 +868,133 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2528614" y="8763012"/>
-          <a:ext cx="35620179" cy="1982207"/>
+          <a:off x="2602909" y="8595372"/>
+          <a:ext cx="36662214" cy="1906007"/>
           <a:chOff x="326183" y="9514294"/>
           <a:chExt cx="5510799" cy="1954038"/>
         </a:xfrm>
@@ -1757,8 +1761,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="457200" y="8553451"/>
-          <a:ext cx="42408475" cy="1123950"/>
+          <a:off x="472440" y="8389621"/>
+          <a:ext cx="43618150" cy="1078230"/>
           <a:chOff x="326183" y="9510795"/>
           <a:chExt cx="6308850" cy="1061375"/>
         </a:xfrm>
@@ -2277,8 +2281,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2700,36 +2704,36 @@
   <dimension ref="B1:AG51"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="13" width="18.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" customWidth="1"/>
-    <col min="18" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="23.5703125" customWidth="1"/>
-    <col min="25" max="25" width="23.28515625" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="19.88671875" customWidth="1"/>
+    <col min="17" max="17" width="21.88671875" customWidth="1"/>
+    <col min="18" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="21.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.44140625" customWidth="1"/>
+    <col min="23" max="23" width="23.88671875" customWidth="1"/>
+    <col min="24" max="24" width="23.5546875" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="29" max="29" width="21.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="31" max="31" width="21.88671875" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="15" customHeight="1">
@@ -3038,7 +3042,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
     </row>
-    <row r="10" spans="2:33" ht="15.75">
+    <row r="10" spans="2:33" ht="15.6">
       <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
     </row>
-    <row r="11" spans="2:33" ht="15.75">
+    <row r="11" spans="2:33" ht="15.6">
       <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
@@ -3109,7 +3113,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
     </row>
-    <row r="12" spans="2:33" ht="15.75">
+    <row r="12" spans="2:33" ht="15.6">
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -3143,7 +3147,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
     </row>
-    <row r="13" spans="2:33" ht="15.75">
+    <row r="13" spans="2:33" ht="15.6">
       <c r="B13" s="24" t="s">
         <v>47</v>
       </c>
@@ -3247,7 +3251,7 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="2:33" ht="15.75" thickBot="1">
+    <row r="16" spans="2:33" ht="15" thickBot="1">
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -3281,133 +3285,133 @@
       <c r="AF16" s="28"/>
       <c r="AG16" s="28"/>
     </row>
-    <row r="17" spans="2:33" ht="15.75" thickBot="1">
-      <c r="B17" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="83"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="84"/>
+    <row r="17" spans="2:33" ht="15" thickBot="1">
+      <c r="B17" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="73"/>
       <c r="AG17" s="28"/>
     </row>
     <row r="18" spans="2:33" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="74" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="77" t="s">
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AB18" s="49" t="s">
+      <c r="AB18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AC18" s="54" t="s">
+      <c r="AC18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD18" s="54" t="s">
+      <c r="AD18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="54" t="s">
+      <c r="AE18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AF18" s="54" t="s">
+      <c r="AF18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="AG18" s="30"/>
     </row>
     <row r="19" spans="2:33" ht="86.25" customHeight="1" thickBot="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="80" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="49" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49" t="s">
+      <c r="J19" s="62"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="49" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="49" t="s">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="54" t="s">
+      <c r="S19" s="62"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="54" t="s">
+      <c r="V19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W19" s="54" t="s">
+      <c r="W19" s="47" t="s">
         <v>18</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -3416,146 +3420,146 @@
       <c r="Y19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="60" t="s">
+      <c r="Z19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
       <c r="AG19" s="30"/>
     </row>
     <row r="20" spans="2:33" ht="26.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="78"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="84"/>
       <c r="AB20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
       <c r="AG20" s="30"/>
     </row>
     <row r="21" spans="2:33" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="54" t="s">
+      <c r="N21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="68" t="s">
+      <c r="P21" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="68" t="s">
+      <c r="S21" s="67" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="78"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="84"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
       <c r="AG21" s="30"/>
     </row>
     <row r="22" spans="2:33" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B22" s="70"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="70"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="56"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="70"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="58"/>
       <c r="U22" s="6" t="s">
         <v>22</v>
@@ -3616,7 +3620,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="13">
-        <f>SUM(C23:T23)</f>
+        <f t="shared" ref="U23:U33" si="0">SUM(C23:T23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14"/>
@@ -3647,7 +3651,7 @@
       </c>
       <c r="AG23" s="30"/>
     </row>
-    <row r="24" spans="2:33" ht="25.5">
+    <row r="24" spans="2:33" ht="26.4">
       <c r="B24" s="9" t="s">
         <v>34</v>
       </c>
@@ -3670,7 +3674,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="13">
-        <f>SUM(C24:T24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V24" s="14"/>
@@ -3685,18 +3689,18 @@
         <v>0</v>
       </c>
       <c r="AA24" s="13">
-        <f t="shared" ref="AA24:AA33" si="0">+W24-Z24</f>
+        <f t="shared" ref="AA24:AA33" si="1">+W24-Z24</f>
         <v>0</v>
       </c>
       <c r="AB24" s="14"/>
       <c r="AC24" s="13">
-        <f t="shared" ref="AC24:AC33" si="1">+Z24-AB24</f>
+        <f t="shared" ref="AC24:AC33" si="2">+Z24-AB24</f>
         <v>0</v>
       </c>
       <c r="AD24" s="15"/>
       <c r="AE24" s="16"/>
       <c r="AF24" s="13">
-        <f t="shared" ref="AF24:AF33" si="2">+Z24-AE24</f>
+        <f t="shared" ref="AF24:AF33" si="3">+Z24-AE24</f>
         <v>0</v>
       </c>
       <c r="AG24" s="30"/>
@@ -3724,33 +3728,33 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="13">
-        <f>SUM(C25:T25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="13">
-        <f t="shared" ref="W24:W33" si="3">+U25-V25</f>
+        <f t="shared" ref="W25:W33" si="4">+U25-V25</f>
         <v>0</v>
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="13">
-        <f t="shared" ref="Z24:Z33" si="4">+X25-Y25</f>
+        <f t="shared" ref="Z25:Z33" si="5">+X25-Y25</f>
         <v>0</v>
       </c>
       <c r="AA25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB25" s="14"/>
       <c r="AC25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD25" s="15"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG25" s="30"/>
@@ -3778,38 +3782,38 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="13">
-        <f>SUM(C26:T26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB26" s="14"/>
       <c r="AC26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD26" s="15"/>
       <c r="AE26" s="16"/>
       <c r="AF26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG26" s="30"/>
     </row>
-    <row r="27" spans="2:33" ht="25.5">
+    <row r="27" spans="2:33" ht="26.4">
       <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
@@ -3832,38 +3836,38 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="13">
-        <f>SUM(C27:T27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD27" s="15"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG27" s="30"/>
     </row>
-    <row r="28" spans="2:33" ht="38.25">
+    <row r="28" spans="2:33" ht="39.6">
       <c r="B28" s="9" t="s">
         <v>38</v>
       </c>
@@ -3886,33 +3890,33 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="13">
-        <f>SUM(C28:T28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB28" s="14"/>
       <c r="AC28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD28" s="15"/>
       <c r="AE28" s="16"/>
       <c r="AF28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG28" s="30"/>
@@ -3940,33 +3944,33 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="13">
-        <f>SUM(C29:T29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD29" s="15"/>
       <c r="AE29" s="16"/>
       <c r="AF29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG29" s="30"/>
@@ -3994,33 +3998,33 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="13">
-        <f>SUM(C30:T30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB30" s="14"/>
       <c r="AC30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD30" s="15"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG30" s="30"/>
@@ -4048,33 +4052,33 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="13">
-        <f>SUM(C31:T31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD31" s="15"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG31" s="30"/>
@@ -4102,33 +4106,33 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="13">
-        <f>SUM(C32:T32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB32" s="14"/>
       <c r="AC32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD32" s="15"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG32" s="30"/>
@@ -4156,33 +4160,33 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="13">
-        <f>SUM(C33:T33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB33" s="14"/>
       <c r="AC33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD33" s="15"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG33" s="30"/>
@@ -4200,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" ref="E34:AC34" si="5">SUM(E23:E33)</f>
+        <f t="shared" ref="E34:AC34" si="6">SUM(E23:E33)</f>
         <v>0</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34" s="21">
@@ -4212,11 +4216,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34" s="21">
@@ -4224,11 +4228,11 @@
         <v>0</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="21">
@@ -4236,11 +4240,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P34" s="21">
@@ -4248,11 +4252,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S34" s="21">
@@ -4260,43 +4264,43 @@
         <v>0</v>
       </c>
       <c r="T34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC34" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD34" s="21"/>
@@ -4413,39 +4417,39 @@
       <c r="AG37" s="33"/>
     </row>
     <row r="38" spans="2:33" ht="15" customHeight="1">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
       <c r="AG38" s="35"/>
     </row>
     <row r="39" spans="2:33">
@@ -4892,6 +4896,8 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="AE18:AE21"/>
+    <mergeCell ref="AF18:AF21"/>
     <mergeCell ref="I19:K20"/>
     <mergeCell ref="B38:AF38"/>
     <mergeCell ref="B17:AF17"/>
@@ -4906,31 +4912,29 @@
     <mergeCell ref="R19:T20"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AA21"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="N21:N22"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="AC18:AC21"/>
     <mergeCell ref="AD18:AD21"/>
-    <mergeCell ref="AE18:AE21"/>
-    <mergeCell ref="AF18:AF21"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="F19:H20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AA21"/>
     <mergeCell ref="V19:V21"/>
     <mergeCell ref="W19:W21"/>
     <mergeCell ref="Z19:Z21"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="C19:E20"/>
+    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="L19:N20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE23:AE33 X23:Y33 AB23:AB33 U23:V33" xr:uid="{0BAF0995-4D3E-4C84-B49D-7371F75D40C0}">
@@ -4959,38 +4963,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E2DDC7-F9E8-4154-A34B-E75AA9CC9EB1}">
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="9" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" customWidth="1"/>
-    <col min="12" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" customWidth="1"/>
-    <col min="18" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19.28515625" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1"/>
-    <col min="27" max="27" width="21.28515625" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" customWidth="1"/>
-    <col min="32" max="32" width="24.140625" customWidth="1"/>
+    <col min="3" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="12" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" customWidth="1"/>
+    <col min="15" max="16" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="18" max="19" width="19.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.44140625" customWidth="1"/>
+    <col min="22" max="22" width="21.88671875" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" customWidth="1"/>
+    <col min="25" max="25" width="19.33203125" customWidth="1"/>
+    <col min="26" max="26" width="20.5546875" customWidth="1"/>
+    <col min="27" max="27" width="21.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.88671875" customWidth="1"/>
+    <col min="29" max="29" width="21.109375" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
+    <col min="32" max="32" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -5308,7 +5312,7 @@
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
     </row>
-    <row r="10" spans="1:33" ht="15.75">
+    <row r="10" spans="1:33" ht="15.6">
       <c r="A10" s="22"/>
       <c r="B10" s="24" t="s">
         <v>45</v>
@@ -5345,7 +5349,7 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
     </row>
-    <row r="11" spans="1:33" ht="15.75">
+    <row r="11" spans="1:33" ht="15.6">
       <c r="A11" s="22"/>
       <c r="B11" s="24" t="s">
         <v>46</v>
@@ -5382,7 +5386,7 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
     </row>
-    <row r="12" spans="1:33" ht="15.75">
+    <row r="12" spans="1:33" ht="15.6">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
@@ -5417,7 +5421,7 @@
       <c r="AF12" s="22"/>
       <c r="AG12" s="22"/>
     </row>
-    <row r="13" spans="1:33" ht="15.75">
+    <row r="13" spans="1:33" ht="15.6">
       <c r="A13" s="22"/>
       <c r="B13" s="24" t="s">
         <v>47</v>
@@ -5524,7 +5528,7 @@
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:33" ht="15.75" thickBot="1">
+    <row r="16" spans="1:33" ht="15" thickBot="1">
       <c r="A16" s="22"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -5559,136 +5563,136 @@
       <c r="AF16" s="28"/>
       <c r="AG16" s="28"/>
     </row>
-    <row r="17" spans="1:33" ht="15.75" thickBot="1">
+    <row r="17" spans="1:33" ht="15" thickBot="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="67"/>
+      <c r="B17" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="87"/>
       <c r="AG17" s="40"/>
     </row>
-    <row r="18" spans="1:33" ht="15.75" thickBot="1">
+    <row r="18" spans="1:33" ht="15" thickBot="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="74" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="77" t="s">
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="AB18" s="49" t="s">
+      <c r="AB18" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AC18" s="54" t="s">
+      <c r="AC18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="AD18" s="54" t="s">
+      <c r="AD18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="54" t="s">
+      <c r="AE18" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AF18" s="54" t="s">
+      <c r="AF18" s="47" t="s">
         <v>9</v>
       </c>
       <c r="AG18" s="22"/>
     </row>
-    <row r="19" spans="1:33" ht="51.75" thickBot="1">
+    <row r="19" spans="1:33" ht="53.4" thickBot="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="76"/>
+      <c r="C19" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="81" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="49" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49" t="s">
+      <c r="J19" s="62"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="85"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="49" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="49" t="s">
+      <c r="P19" s="62"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="85"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="54" t="s">
+      <c r="S19" s="62"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="V19" s="54" t="s">
+      <c r="V19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="W19" s="54" t="s">
+      <c r="W19" s="47" t="s">
         <v>18</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -5697,149 +5701,149 @@
       <c r="Y19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="60" t="s">
+      <c r="Z19" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
       <c r="AG19" s="22"/>
     </row>
-    <row r="20" spans="1:33" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:33" ht="15" hidden="1" thickBot="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="78"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="84"/>
       <c r="AB20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
       <c r="AG20" s="22"/>
     </row>
     <row r="21" spans="1:33" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="68" t="s">
+      <c r="G21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="54" t="s">
+      <c r="H21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="54" t="s">
+      <c r="L21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="54" t="s">
+      <c r="N21" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="68" t="s">
+      <c r="P21" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="68" t="s">
+      <c r="S21" s="67" t="s">
         <v>56</v>
       </c>
       <c r="T21" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="78"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="84"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
       <c r="AG21" s="22"/>
     </row>
-    <row r="22" spans="1:33" ht="15.75" thickBot="1">
+    <row r="22" spans="1:33" ht="15" thickBot="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="70"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="56"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="70"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="58"/>
       <c r="U22" s="6" t="s">
         <v>22</v>
@@ -5901,7 +5905,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
       <c r="U23" s="13">
-        <f>SUM(C23:T23)</f>
+        <f>SUM(C23:T23) + SUM('Predial Enero-Junio'!C23:T23)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14"/>
@@ -5932,7 +5936,7 @@
       </c>
       <c r="AG23" s="22"/>
     </row>
-    <row r="24" spans="1:33" ht="25.5">
+    <row r="24" spans="1:33" ht="26.4">
       <c r="A24" s="22"/>
       <c r="B24" s="9" t="s">
         <v>34</v>
@@ -5956,33 +5960,33 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
       <c r="U24" s="13">
-        <f t="shared" ref="U24:U33" si="0">SUM(C24:T24)</f>
+        <f>SUM(C24:T24) + SUM('Predial Enero-Junio'!C24:T24)</f>
         <v>0</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="13">
-        <f t="shared" ref="W24:W33" si="1">+U24-V24</f>
+        <f t="shared" ref="W24:W33" si="0">+U24-V24</f>
         <v>0</v>
       </c>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="13">
-        <f t="shared" ref="Z24:Z33" si="2">+X24-Y24</f>
+        <f t="shared" ref="Z24:Z33" si="1">+X24-Y24</f>
         <v>0</v>
       </c>
       <c r="AA24" s="13">
-        <f t="shared" ref="AA24:AA33" si="3">+W24-Z24</f>
+        <f t="shared" ref="AA24:AA33" si="2">+W24-Z24</f>
         <v>0</v>
       </c>
       <c r="AB24" s="14"/>
       <c r="AC24" s="13">
-        <f t="shared" ref="AC24:AC33" si="4">+Z24-AB24</f>
+        <f t="shared" ref="AC24:AC33" si="3">+Z24-AB24</f>
         <v>0</v>
       </c>
       <c r="AD24" s="15"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="13">
-        <f t="shared" ref="AF24:AF33" si="5">+Z24-AE24</f>
+        <f t="shared" ref="AF24:AF33" si="4">+Z24-AE24</f>
         <v>0</v>
       </c>
       <c r="AG24" s="22"/>
@@ -6011,33 +6015,33 @@
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
       <c r="U25" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C25:T25) + SUM('Predial Enero-Junio'!C25:T25)</f>
         <v>0</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB25" s="14"/>
       <c r="AC25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD25" s="15"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG25" s="22"/>
@@ -6066,38 +6070,38 @@
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
       <c r="U26" s="13">
-        <f>SUM(C26:T26)</f>
+        <f>SUM(C26:T26) + SUM('Predial Enero-Junio'!C26:T26)</f>
         <v>0</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB26" s="14"/>
       <c r="AC26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD26" s="15"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG26" s="22"/>
     </row>
-    <row r="27" spans="1:33" ht="25.5">
+    <row r="27" spans="1:33" ht="26.4">
       <c r="A27" s="22"/>
       <c r="B27" s="9" t="s">
         <v>37</v>
@@ -6119,38 +6123,38 @@
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
       <c r="U27" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C27:T27) + SUM('Predial Enero-Junio'!C27:T27)</f>
         <v>0</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD27" s="15"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG27" s="22"/>
     </row>
-    <row r="28" spans="1:33" ht="51">
+    <row r="28" spans="1:33" ht="52.8">
       <c r="A28" s="22"/>
       <c r="B28" s="9" t="s">
         <v>38</v>
@@ -6174,33 +6178,33 @@
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
       <c r="U28" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C28:T28) + SUM('Predial Enero-Junio'!C28:T28)</f>
         <v>0</v>
       </c>
       <c r="V28" s="14"/>
       <c r="W28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB28" s="14"/>
       <c r="AC28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD28" s="15"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG28" s="22"/>
@@ -6229,33 +6233,33 @@
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C29:T29) + SUM('Predial Enero-Junio'!C29:T29)</f>
         <v>0</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD29" s="15"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG29" s="22"/>
@@ -6284,33 +6288,33 @@
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:T30) + SUM('Predial Enero-Junio'!C30:T30)</f>
         <v>0</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB30" s="14"/>
       <c r="AC30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD30" s="15"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG30" s="22"/>
@@ -6339,33 +6343,33 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C31:T31) + SUM('Predial Enero-Junio'!C31:T31)</f>
         <v>0</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB31" s="14"/>
       <c r="AC31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD31" s="15"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG31" s="22"/>
@@ -6394,33 +6398,33 @@
       <c r="S32" s="12"/>
       <c r="T32" s="12"/>
       <c r="U32" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C32:T32) + SUM('Predial Enero-Junio'!C32:T32)</f>
         <v>0</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB32" s="14"/>
       <c r="AC32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD32" s="15"/>
       <c r="AE32" s="14"/>
       <c r="AF32" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG32" s="22"/>
@@ -6449,33 +6453,33 @@
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
       <c r="U33" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:T33) + SUM('Predial Enero-Junio'!C33:T33)</f>
         <v>0</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="13">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB33" s="14"/>
       <c r="AC33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD33" s="15"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG33" s="22"/>
@@ -6486,7 +6490,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="21">
-        <f t="shared" ref="C34:AC34" si="6">SUM(C23:C33)</f>
+        <f t="shared" ref="C34:AC34" si="5">SUM(C23:C33)</f>
         <v>0</v>
       </c>
       <c r="D34" s="21">
@@ -6494,11 +6498,11 @@
         <v>0</v>
       </c>
       <c r="E34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34" s="21">
@@ -6506,11 +6510,11 @@
         <v>0</v>
       </c>
       <c r="H34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="21">
@@ -6518,11 +6522,11 @@
         <v>0</v>
       </c>
       <c r="K34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M34" s="21">
@@ -6530,11 +6534,11 @@
         <v>0</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P34" s="21">
@@ -6542,11 +6546,11 @@
         <v>0</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S34" s="21">
@@ -6554,43 +6558,43 @@
         <v>0</v>
       </c>
       <c r="T34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC34" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD34" s="21"/>
@@ -6709,41 +6713,41 @@
       <c r="AF37" s="33"/>
       <c r="AG37" s="33"/>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" ht="15">
       <c r="A38" s="36"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
       <c r="AG38" s="35"/>
     </row>
     <row r="39" spans="1:33">
@@ -7098,16 +7102,13 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="O19:Q20"/>
+    <mergeCell ref="R19:T20"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="H21:H22"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="R19:T20"/>
     <mergeCell ref="B17:AF17"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="C18:W18"/>
@@ -7123,6 +7124,7 @@
     <mergeCell ref="F19:H20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="L19:N20"/>
+    <mergeCell ref="P21:P22"/>
     <mergeCell ref="B38:AF38"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="N21:N22"/>
@@ -7137,6 +7139,8 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="I19:K20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE23:AE33 X23:Y33 AB23:AB33 U23:V33" xr:uid="{4508205E-A5E0-471F-AE4F-0360A701496B}">
